--- a/Consulta rápida/Dotaciones_propuesta_ajuste_lineamientos_tecnico_y.xlsx
+++ b/Consulta rápida/Dotaciones_propuesta_ajuste_lineamientos_tecnico_y.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Consulta rápida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA1AC6-C962-489A-A06C-C3C035344DF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B09BA-FCC5-40A7-B32D-8842E570E0E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Propuesta" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Propuesta!$A$6:$L$14</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="48">
   <si>
     <t>Pagina 1 de 1</t>
   </si>
@@ -76,156 +79,22 @@
 (H) </t>
   </si>
   <si>
-    <t>MANUAL OPERATIVO PARA LA ATENCIÓN A LA PRIMERA
-INFANCIA - MODALIDAD INSTITUCIONAL versión 3</t>
-  </si>
-  <si>
-    <t>100 de 131</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t>Subdirección de Operación de Atención a la Primera Infancia- Dotaciones</t>
+  </si>
+  <si>
+    <t>Las EAS deberán comprar dotación de acuerdo en lo establecido en la Guía orientadora y el presupuesto asignado en el contrato.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anexos: </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Estándar 46/Nota 1 ICBF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para el cumplimiento de este estándar la EAS deberá basarse en lo establecido en la “Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF”.</t>
-    </r>
-  </si>
-  <si>
-    <t>101 de 131</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estándar 47/Nota 1 ICBF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> La Guía orientadora para la compra de la dotación para las modalidades de educación inicial en el marco de una atención integral”; como su nombre lo dice, es una guía para la adquisición de los bienes de dotación en nuestras UDS, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada UDS de acuerdo con la diversidad del territorio.</t>
-    </r>
-  </si>
-  <si>
-    <t>Subdirección de Operación de Atención a la Primera Infancia- Dotaciones</t>
-  </si>
-  <si>
-    <t>96 de 117</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estándar 47/Nota 1 ICBF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para el cumplimiento de este estándar deberá basarse en lo establecido en la “Guía orientadora para la compra de la dotación para las modalidades de educación inicial en el marco de una atención integral del ICBF”, la “Guía técnica del componente de alimentación y nutrición para los programas y proyectos misionales del ICBF” y la “Guía Técnica para la Metrología Aplicable a los Programas de los Procesos Misionales del ICBF”, o los documentos que los sustituyan, modifiquen o hagan sus veces.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estándar 46/Nota 4 ICBF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para el cumplimiento de este estándar la EAS deberá tomar como referencia lo establecido en la “Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF”.</t>
-    </r>
-  </si>
-  <si>
-    <t>MANUAL OPERATIVO PARA LA ATENCIÓN A LA PRIMERA
-INFANCIA - MODALIDAD FAMILIAR versión 3</t>
-  </si>
-  <si>
-    <t>38 de 128</t>
-  </si>
-  <si>
-    <t>Las EAS deberán comprar dotación de acuerdo en lo establecido en la Guía orientadora y el presupuesto asignado en el contrato.</t>
-  </si>
-  <si>
-    <t>Las EAS deberán comprar dotación de acuerdo con el presupuesto asignado en el contrato y las recomendaciones de la “Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF”; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
-  </si>
-  <si>
-    <t>MANUAL OPERATIVO SERVICIO DE EDUCACIÓN INICIAL, EN EL MARCO DE LA ATENCIÓN INTEGRAL PARA LA PRIMERA INFANCIA- MODALIDAD PROPIA E INTERCULTURAL versión 2</t>
-  </si>
-  <si>
-    <t>MANUAL OPERATIVO DE LA MODALIDAD COMUNITARIA
-PARA LA ATENCIÓN A LA PRIMERA INFANCIA versión 3</t>
-  </si>
-  <si>
-    <t>131 de 158</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Estándar 46/tabla/CRITERIOS APLICABLES A LOS SERVICIOS DE LA MODALIDAD/: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Para el cumplimiento de este estándar la EAS deberá basarse en lo establecido en la Guía para la compra de la Dotación para las modalidades de educación inicial en el marco de la atención integral del ICBF.</t>
-    </r>
-  </si>
-  <si>
-    <t>155 de 158</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Anexos: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Dotación para los Hogares Comunitarios de Bienestar (publicado en el portal como   Anexo Dotación Modalidades HCB v1.pdf)</t>
     </r>
   </si>
@@ -239,188 +108,7 @@
     <t>Se han presentado observaciones o requerimientos del equipo de aseguramiento de la calidad con respecto a las dotaciones adquiridas para las UDS de primera Infancia. El Equipo en mesa de trabajo del 23 de febrero de 2018 afirma que sus instrumentos de verificación se basan en los Manuales operativos, y en ellos se expresa que la dotación debe basarse en la Guía orientadora de compra de dotación, lo cual interpretan como obligatorio. Sin embargo, desde Primera Infacia se establece la Guía como un documento orientador de la compra, no como una camisa de fuerza.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estándar 46/Nota 1 ICBF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para el cumplimiento de este estándar la EAS deberá basarse en las recomendaciones de la “</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>”; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
-    </r>
-  </si>
-  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estándar 47/Nota 1 ICBF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para el cumplimiento de este estándar la EAS deberá basarse en las recomendaciones de la “</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>”; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estándar 46/Nota 4 ICBF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para el cumplimiento de este estándar la EAS deberá basarse en las recomendaciones de la “</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>”; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estándar 47/Nota 1 ICBF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para el cumplimiento de este estándar deberá basarse en lo establecido en la “Guía técnica del componente de alimentación y nutrición para los programas y proyectos misionales del ICBF”, la “Guía Técnica para la Metrología Aplicable a los Programas de los Procesos Misionales del ICBF”, y las recomendaciones de la “Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF” o los documentos que los sustituyan, modifiquen o hagan sus veces.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estándar 46:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Para el cumplimiento de este estándar la EAS deberá basarse en las recomendaciones de la “</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>”; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
-    </r>
   </si>
   <si>
     <t>SI</t>
@@ -437,13 +125,266 @@
   </si>
   <si>
     <t>Nueva Observación</t>
+  </si>
+  <si>
+    <t>137 de 171</t>
+  </si>
+  <si>
+    <t>Portal Web</t>
+  </si>
+  <si>
+    <t>152 de 171</t>
+  </si>
+  <si>
+    <t>MANUAL OPERATIVO PARA LA ATENCIÓN A LA PRIMERA
+INFANCIA - MODALIDAD FAMILIAR versión 4</t>
+  </si>
+  <si>
+    <t>47 de 177</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estándar 46:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Los elementos definidos en la “Guía orientadora para la dotación en las modalidades de atención” son un referente para su adquisición, estos componen la dotación de los servicios de primera infancia encaminada a que cada componente de atención cuente con los insumos necesarios para garantizar la calidad en el servicio. </t>
+    </r>
+  </si>
+  <si>
+    <t>MANUAL OPERATIVO PARA LA ATENCIÓN A LA PRIMERA
+INFANCIA - MODALIDAD INSTITUCIONAL versión 4</t>
+  </si>
+  <si>
+    <t>133 de 172</t>
+  </si>
+  <si>
+    <t>45 de 172</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.3.1.3. Gestión del espacio físico y dotación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Consiste en la adecuación de la infraestructura en la que se prestará el servicio, de acuerdo con los requerimientos establecidos en las condiciones de calidad, así como al proceso para contar con la dotación para la prestación del servicio, especialmente con el material didáctico que requieren las UDS, teniendo en cuenta las características de niñas y niños, de igual manera se deben considerar las condiciones de calidad definidas en el presente manual y la “Guía orientadora para la  dotación para las modalidades de atención integral de primera infancia”
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>Se evidencia que en la página 40 se usa de manera adecuada el nombre completo del documento orientador, "G10.PP Guía Orientadora para la Compra de la Dotación para las Modalidades de Educación Inicial en el Marco de una Atención Integral v4", pero en la página 45 se refiere a este documento como “Guía orientadora para la dotación para las modalidades de atención integral de primera infancia”, lo cual puede prestarse para confusiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir y garantizar la dotación requerida para la prestación del servicio de  acuerdo con: 
+• “Guía orientadora para la dotación para las modalidades de educación inicial  en el marco de la atención integral”. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.3.1.3. Gestión del espacio físico y dotación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consiste en la adecuación de la infraestructura en la que se prestará el servicio, de acuerdo con los requerimientos establecidos en las condiciones de calidad, así como al proceso para contar con la dotación para la prestación del servicio, especialmente con el material didáctico que requieren las UDS, teniendo en cuenta las características de niñas y niños, de igual manera se deben considerar las condiciones de calidad definidas en el presente manual y la “Guía Orientadora para la Compra de la Dotación para las Modalidades de Educación Inicial en el Marco de una Atención Integral" en su versión mas reciente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estándar 46:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para el cumplimiento de este estándar la EAS deberá basarse en las recomendaciones de la “</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>” en su versión  más reciente; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
+    </r>
+  </si>
+  <si>
+    <t>Definir y garantizar la dotación requerida para la prestación del servicio de  acuerdo con: 
+• “ Guía Orientadora para la Compra de la Dotación para las Modalidades de Educación Inicial en el Marco de una Atención Integral" en su versión más reciente.</t>
+  </si>
+  <si>
+    <t>Las EAS deberán comprar dotación de acuerdo con el presupuesto asignado en el contrato y las recomendaciones de la “Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF” en su versión más reciente; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
+  </si>
+  <si>
+    <t>MANUAL OPERATIVO SERVICIO DE EDUCACIÓN INICIAL, EN EL MARCO DE LA ATENCIÓN INTEGRAL PARA LA PRIMERA INFANCIA- MODALIDAD PROPIA E INTERCULTURAL versión 3</t>
+  </si>
+  <si>
+    <t>153 de 185</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estándar 46:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Los elementos definidos en la “Guía orientadora para la dotación de las modalidades de educación inicial en el marco de una atención integral” son un referente para su adquisición, estos componen la dotación de los servicios de primera infancia encaminada a que cada componente de atención cuente con los insumos necesarios para garantizar la calidad en el servicio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estándar 46:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para el cumplimiento de este estándar la EAS deberá basarse en las recomendaciones de la “</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>” en su versión más reciente; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estándar 46/tabla/Condiciones de calidad del componente ambientes educativos y protectores: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Los elementos definidos en la “Guía Orientadora para la dotación de las modalidades de educación inicial del ICBF” son un referente para su adquisición, estos componen la dotación de los servicios de primera infancia encaminada a que cada componente de atención cuente con los insumos necesarios para garantizar la calidad en el servicio. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estándar 46:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Para el cumplimiento de este estándar la EAS deberá basarse en las recomendaciones de la “</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Guía orientadora para la compra de la dotación en las modalidades de educación inicial en el marco de la atención integral del ICBF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>” en su versión más reciente; que tal y como indica su nombre es una guía para la adquisición de los bienes de dotación, con el fin de garantizar que dichos bienes den respuesta a las necesidades particulares de cada Unidad de Servicio de acuerdo con la diversidad del territorio.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,39 +418,25 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -815,172 +742,164 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,320 +1240,319 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="E14" sqref="A14:E14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="82" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="42" style="7" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="55" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="55" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="32" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="39" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="43">
+      <c r="H1" s="29"/>
+      <c r="I1" s="32">
         <v>42851</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="44"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="33"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="23" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="243.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="F9" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="B10" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" ht="231.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="E13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:12" ht="228" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:L14" xr:uid="{5CA932DC-F7C7-4D57-8599-030D9A8233A9}"/>
   <mergeCells count="7">
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A1:C5"/>
